--- a/WebDriver/Data/excelWork.xlsx
+++ b/WebDriver/Data/excelWork.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\WebDriver\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LandingPage" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,9 +24,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Need a change</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUse2</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUser3</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUse3</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUser4</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUse4</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUser5</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUse5</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUser6</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUser1</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUser2</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUse6</t>
+  </si>
+  <si>
+    <t>TestCaseRegisterUse7</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
   </si>
 </sst>
 </file>
@@ -42,15 +84,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +112,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,18 +415,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebDriver/Data/excelWork.xlsx
+++ b/WebDriver/Data/excelWork.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebDriver/Data/excelWork.xlsx
+++ b/WebDriver/Data/excelWork.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebDriver/Data/excelWork.xlsx
+++ b/WebDriver/Data/excelWork.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\WebDriver\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="LandingPage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -69,16 +65,42 @@
   </si>
   <si>
     <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Lal</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>gklal210@rediffmail.com</t>
+  </si>
+  <si>
+    <t>#demo123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,15 +150,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,101 +440,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>